--- a/기획/테이블/캐릭터/NPC 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6345D413-8CD3-40FB-8915-DBDC2901A7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475FDBF7-68DD-4F5C-B519-6B44963A29F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="3090" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6735" yWindow="4560" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstInteractionType</t>
+    <t>DefaultInteractionType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,47 +353,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>

--- a/기획/테이블/캐릭터/NPC 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475FDBF7-68DD-4F5C-B519-6B44963A29F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F19911-BC49-48BA-964D-DCB24BF6BF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6735" yWindow="4560" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="3090" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -394,6 +394,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
